--- a/Tugas RO sebelum UAS.xlsx
+++ b/Tugas RO sebelum UAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\S2\S2 Perkuliahan\RISET OPERASI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/BIJI/Kuliah/S2/Semester 1/RISET OPERASI/TUGAS BESAR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5661F9A4-E53B-4B04-889A-5525C492046C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE25D07-E855-FC43-8010-670A13325680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F36BB4F-AC9D-4DEF-9EB3-2EAEC8A44453}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{6F36BB4F-AC9D-4DEF-9EB3-2EAEC8A44453}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$O$12</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -73,12 +74,20 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1472,205 +1481,205 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>94.657084506396885</c:v>
+                  <c:v>94.672199770616174</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.031584581351538</c:v>
+                  <c:v>98.037487322186152</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.87671088652813</c:v>
+                  <c:v>99.878469250084947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.394381396839677</c:v>
+                  <c:v>92.362196954992413</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100.01263507915948</c:v>
+                  <c:v>100.01455682645174</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100.01263507915948</c:v>
+                  <c:v>100.01455682645174</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.037680641523167</c:v>
+                  <c:v>93.037505822939352</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100.01263507915948</c:v>
+                  <c:v>100.01455682645174</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99.758117868872333</c:v>
+                  <c:v>99.759953062102952</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>93.698313628078949</c:v>
+                  <c:v>93.698843062687544</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>92.777649858941331</c:v>
+                  <c:v>92.784922399176651</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90.870834200616926</c:v>
+                  <c:v>90.87405227726812</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>95.030724153060561</c:v>
+                  <c:v>95.031133319858625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>90.670641873339832</c:v>
+                  <c:v>90.666987647266353</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95.074674111203592</c:v>
+                  <c:v>95.069148996146495</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.01263507915948</c:v>
+                  <c:v>100.01455682645174</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>93.425536574047513</c:v>
+                  <c:v>93.441802476305156</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>96.444125009781303</c:v>
+                  <c:v>96.434964196559932</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100.01263507915948</c:v>
+                  <c:v>100.01455682645174</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>94.034222757412252</c:v>
+                  <c:v>94.034338396283729</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>84.447664349273154</c:v>
+                  <c:v>84.445637216700973</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>97.162761554658857</c:v>
+                  <c:v>97.162432735765861</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>100.01263507915948</c:v>
+                  <c:v>100.01455682645174</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100.01263507915948</c:v>
+                  <c:v>100.01455682645174</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>95.030724153060561</c:v>
+                  <c:v>95.031133319858625</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>90.047805528623272</c:v>
+                  <c:v>90.046778096784067</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>100.01263507915948</c:v>
+                  <c:v>100.01455682645174</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>100.01263507915948</c:v>
+                  <c:v>100.01455682645174</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>88.750785368568273</c:v>
+                  <c:v>88.757937331708007</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>92.896825941426769</c:v>
+                  <c:v>92.897443392224517</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>93.037680641523167</c:v>
+                  <c:v>93.037505822939352</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>80.07871349875569</c:v>
+                  <c:v>80.075058349359153</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>100.01263507915948</c:v>
+                  <c:v>100.01455682645174</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>96.658433213086994</c:v>
+                  <c:v>96.657941367888739</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>100.01263507915948</c:v>
+                  <c:v>100.01455682645174</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>95.973405494811985</c:v>
+                  <c:v>95.973679333036728</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>88.428119025973984</c:v>
+                  <c:v>88.422630176627436</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>100.01263507915948</c:v>
+                  <c:v>100.01455682645174</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>96.006225834270097</c:v>
+                  <c:v>95.987255690567807</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>84.837961010285511</c:v>
+                  <c:v>84.842350629621805</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>94.276027126168955</c:v>
+                  <c:v>94.275473471233383</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>90.817895517759482</c:v>
+                  <c:v>90.836388753198591</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>86.242600019672352</c:v>
+                  <c:v>86.230375036403217</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>88.275069983670193</c:v>
+                  <c:v>88.283005252089865</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>89.051096038831147</c:v>
+                  <c:v>89.049790771430594</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>100.01263507915948</c:v>
+                  <c:v>100.01455682645174</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100.01263507915948</c:v>
+                  <c:v>100.01455682645174</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>99.016331005930937</c:v>
+                  <c:v>99.017944348034931</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>75.108795198357129</c:v>
+                  <c:v>75.116963419306188</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>88.754690532302021</c:v>
+                  <c:v>88.751024574474243</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>90.047805528623272</c:v>
+                  <c:v>90.046778096784067</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>91.107577949463419</c:v>
+                  <c:v>91.097384857647413</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>80.07871349875569</c:v>
+                  <c:v>80.075058349359153</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>96.769385352587449</c:v>
+                  <c:v>96.78338809862602</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>81.875729932598148</c:v>
+                  <c:v>81.872846876815004</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>72.665724902651476</c:v>
+                  <c:v>72.663602302234693</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>87.273060504561371</c:v>
+                  <c:v>87.256407572168001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>80.07871349875569</c:v>
+                  <c:v>80.075058349359153</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>81.342297622856691</c:v>
+                  <c:v>81.324444112230125</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>92.518733242688469</c:v>
+                  <c:v>92.512141055580244</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>95.030724153060561</c:v>
+                  <c:v>95.031133319858625</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>92.71182013065328</c:v>
+                  <c:v>92.713110476843468</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>90.826213392195868</c:v>
+                  <c:v>90.850528107324109</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>99.016331005930937</c:v>
+                  <c:v>99.017944348034931</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>99.393120600090356</c:v>
+                  <c:v>99.384824165884297</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>98.630545225664719</c:v>
+                  <c:v>98.627180882163032</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>99.016331005930937</c:v>
+                  <c:v>99.017944348034931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3357,24 +3366,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081B0DE5-673C-46F3-B47D-97D5D5A799F0}">
   <dimension ref="A3:R185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S62" sqref="S62"/>
+    <sheetView topLeftCell="G72" zoomScale="247" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3403,7 +3412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="26">
         <v>0.19257397604967422</v>
       </c>
@@ -3432,7 +3441,7 @@
         <v>0.53287821167156924</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3443,20 +3452,20 @@
       <c r="I5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L8" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -3502,7 +3511,7 @@
       </c>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>0.95</v>
       </c>
@@ -3555,7 +3564,7 @@
         <v>6.6769746783046918E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>0.95</v>
       </c>
@@ -3609,7 +3618,7 @@
         <v>2.9702299877196181E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>1</v>
       </c>
@@ -3663,7 +3672,7 @@
         <v>2.5636264580126139E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>0.95</v>
       </c>
@@ -3717,7 +3726,7 @@
         <v>5.519883355170203E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>1</v>
       </c>
@@ -3771,7 +3780,7 @@
         <v>2.5902974633071854E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>1</v>
       </c>
@@ -3825,7 +3834,7 @@
         <v>2.5902974633071854E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>0.93</v>
       </c>
@@ -3879,7 +3888,7 @@
         <v>7.5243429373668169E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>1</v>
       </c>
@@ -3933,7 +3942,7 @@
         <v>2.5902974633071854E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>1</v>
       </c>
@@ -3987,7 +3996,7 @@
         <v>1.8910253349539508E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>0.95</v>
       </c>
@@ -4041,7 +4050,7 @@
         <v>5.0697733952970915E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>0.92</v>
       </c>
@@ -4095,7 +4104,7 @@
         <v>2.1916114137481352E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>0.9</v>
       </c>
@@ -4149,7 +4158,7 @@
         <v>6.1190279455343105E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>0.95</v>
       </c>
@@ -4203,7 +4212,7 @@
         <v>4.4646778065210133E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>0.9</v>
       </c>
@@ -4257,7 +4266,7 @@
         <v>1.7512745283971112E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>0.98</v>
       </c>
@@ -4311,7 +4320,7 @@
         <v>1.5246272117484667E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>1</v>
       </c>
@@ -4365,7 +4374,7 @@
         <v>2.5902974633071854E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>0.89</v>
       </c>
@@ -4419,7 +4428,7 @@
         <v>2.0751672926562395E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>0.99</v>
       </c>
@@ -4473,7 +4482,7 @@
         <v>5.2368875161331784E-7</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>1</v>
       </c>
@@ -4527,7 +4536,7 @@
         <v>2.5902974633071854E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>0.94</v>
       </c>
@@ -4581,7 +4590,7 @@
         <v>6.1742646906648508E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>0.85</v>
       </c>
@@ -4635,7 +4644,7 @@
         <v>2.849356948888147E-6</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>0.99</v>
       </c>
@@ -4689,7 +4698,7 @@
         <v>3.9614230431252287E-8</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>1</v>
       </c>
@@ -4743,7 +4752,7 @@
         <v>2.5902974633071854E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>1</v>
       </c>
@@ -4797,7 +4806,7 @@
         <v>2.5902974633071854E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>0.95</v>
       </c>
@@ -4851,7 +4860,7 @@
         <v>4.4646778065210133E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>0.9</v>
       </c>
@@ -4905,7 +4914,7 @@
         <v>8.2838513582439362E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>1</v>
       </c>
@@ -4959,7 +4968,7 @@
         <v>2.5902974633071854E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>1</v>
       </c>
@@ -5013,7 +5022,7 @@
         <v>2.5902974633071854E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>0.9</v>
       </c>
@@ -5067,7 +5076,7 @@
         <v>1.1549208810330337E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>0.93</v>
       </c>
@@ -5121,7 +5130,7 @@
         <v>6.8905307905692823E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>0.93</v>
       </c>
@@ -5175,7 +5184,7 @@
         <v>7.5243429373668169E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>0.8</v>
       </c>
@@ -5229,7 +5238,7 @@
         <v>6.1649246942839446E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>1</v>
       </c>
@@ -5283,7 +5292,7 @@
         <v>2.5902974633071854E-5</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>0.95</v>
       </c>
@@ -5337,7 +5346,7 @@
         <v>3.0605691161747071E-6</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>1</v>
       </c>
@@ -5391,7 +5400,7 @@
         <v>2.5902974633071854E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>1</v>
       </c>
@@ -5445,7 +5454,7 @@
         <v>1.7353372278235184E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>0.89</v>
       </c>
@@ -5499,7 +5508,7 @@
         <v>3.2234485544616513E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>1</v>
       </c>
@@ -5553,7 +5562,7 @@
         <v>2.5902974633071854E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>0.96</v>
       </c>
@@ -5607,7 +5616,7 @@
         <v>6.1184307394812271E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>0.9</v>
       </c>
@@ -5661,7 +5670,7 @@
         <v>1.7981720378345677E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>0.9</v>
       </c>
@@ -5715,7 +5724,7 @@
         <v>3.6757140266110657E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>0.85</v>
       </c>
@@ -5769,7 +5778,7 @@
         <v>2.5285121254909655E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>0.85</v>
       </c>
@@ -5823,7 +5832,7 @@
         <v>1.3256136993153618E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>0.86</v>
       </c>
@@ -5877,7 +5886,7 @@
         <v>5.8681890830106645E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>0.89</v>
       </c>
@@ -5931,7 +5940,7 @@
         <v>7.4160932074857124E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>1</v>
       </c>
@@ -5985,7 +5994,7 @@
         <v>2.5902974633071854E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>1</v>
       </c>
@@ -6039,7 +6048,7 @@
         <v>2.5902974633071854E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>0.99</v>
       </c>
@@ -6093,7 +6102,7 @@
         <v>3.606516555721081E-6</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>0.7</v>
       </c>
@@ -6147,7 +6156,7 @@
         <v>3.7855826297725432E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>0.9</v>
       </c>
@@ -6201,7 +6210,7 @@
         <v>5.5576527222050913E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>0.9</v>
       </c>
@@ -6255,7 +6264,7 @@
         <v>8.2838513582439362E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>1</v>
       </c>
@@ -6309,7 +6318,7 @@
         <v>1.81457522371833E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>0.8</v>
       </c>
@@ -6363,7 +6372,7 @@
         <v>6.1649246942839446E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>0.95</v>
       </c>
@@ -6417,7 +6426,7 @@
         <v>1.632160446153805E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>0.8</v>
       </c>
@@ -6471,7 +6480,7 @@
         <v>3.1895082808229837E-6</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>0.69</v>
       </c>
@@ -6525,7 +6534,7 @@
         <v>1.3541346964303577E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>0.99</v>
       </c>
@@ -6579,7 +6588,7 @@
         <v>8.6907357192242917E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>0.8</v>
       </c>
@@ -6633,7 +6642,7 @@
         <v>6.1649246942839446E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>0.8</v>
       </c>
@@ -6687,7 +6696,7 @@
         <v>5.0855951751745202E-6</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>0.9</v>
       </c>
@@ -6741,7 +6750,7 @@
         <v>1.3769044962000496E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>0.95</v>
       </c>
@@ -6795,7 +6804,7 @@
         <v>4.4646778065210133E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>0.94</v>
       </c>
@@ -6849,7 +6858,7 @@
         <v>4.3484209726594563E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>0.8</v>
       </c>
@@ -6903,7 +6912,7 @@
         <v>5.2631789916879736E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>0.99</v>
       </c>
@@ -6957,7 +6966,7 @@
         <v>3.606516555721081E-6</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>1</v>
       </c>
@@ -7011,7 +7020,7 @@
         <v>1.3555060757896877E-5</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>0.99</v>
       </c>
@@ -7065,7 +7074,7 @@
         <v>2.4837779072097515E-8</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
         <v>0.99</v>
       </c>
@@ -7119,7 +7128,7 @@
         <v>3.606516555721081E-6</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -7156,7 +7165,7 @@
         <v>6.3158835528516373E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -7167,7 +7176,7 @@
       <c r="H81" s="6"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>34</v>
       </c>
@@ -7182,7 +7191,7 @@
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -7199,7 +7208,7 @@
         <v>9.4266918699278173E-5</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>37</v>
       </c>
@@ -7221,7 +7230,7 @@
         <v>9.709115237717501E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>35</v>
       </c>
@@ -7243,7 +7252,7 @@
         <v>7.4471452467224017E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="10">
         <f>STDEV(K12:K78)</f>
@@ -7259,12 +7268,12 @@
         <v>26</v>
       </c>
       <c r="K86" s="10">
-        <f>B85/SQRT(B80)</f>
-        <v>8.1408830577841072E-3</v>
+        <f>Q80</f>
+        <v>6.3158835528516373E-3</v>
       </c>
       <c r="L86" s="10"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -7281,7 +7290,7 @@
         <v>0.97844875602063719</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -7291,7 +7300,7 @@
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -7301,7 +7310,7 @@
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -7311,7 +7320,7 @@
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -7321,7 +7330,7 @@
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -7331,7 +7340,7 @@
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -7341,7 +7350,7 @@
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -7351,7 +7360,7 @@
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -7361,7 +7370,7 @@
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -7371,7 +7380,7 @@
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -7381,7 +7390,7 @@
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -7391,7 +7400,7 @@
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -7401,7 +7410,7 @@
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -7411,7 +7420,7 @@
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -7421,7 +7430,7 @@
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -7431,7 +7440,7 @@
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -7441,7 +7450,7 @@
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -7451,7 +7460,7 @@
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -7461,7 +7470,7 @@
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -7471,7 +7480,7 @@
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -7481,7 +7490,7 @@
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -7491,7 +7500,7 @@
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -7501,7 +7510,7 @@
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -7511,7 +7520,7 @@
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -7521,7 +7530,7 @@
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -7531,7 +7540,7 @@
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -7541,7 +7550,7 @@
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -7551,7 +7560,7 @@
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -7561,7 +7570,7 @@
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -7571,7 +7580,7 @@
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -7581,7 +7590,7 @@
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -7591,7 +7600,7 @@
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -7601,7 +7610,7 @@
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -7611,7 +7620,7 @@
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -7621,7 +7630,7 @@
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -7631,7 +7640,7 @@
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -7641,7 +7650,7 @@
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -7651,7 +7660,7 @@
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -7661,7 +7670,7 @@
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -7671,7 +7680,7 @@
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -7681,7 +7690,7 @@
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -7691,7 +7700,7 @@
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -7701,7 +7710,7 @@
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -7711,7 +7720,7 @@
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -7721,7 +7730,7 @@
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -7731,7 +7740,7 @@
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -7741,7 +7750,7 @@
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -7751,7 +7760,7 @@
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -7761,7 +7770,7 @@
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -7771,7 +7780,7 @@
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -7781,7 +7790,7 @@
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -7791,7 +7800,7 @@
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -7801,7 +7810,7 @@
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -7811,7 +7820,7 @@
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -7821,7 +7830,7 @@
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -7831,7 +7840,7 @@
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -7841,7 +7850,7 @@
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -7851,7 +7860,7 @@
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -7861,7 +7870,7 @@
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -7871,7 +7880,7 @@
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -7881,7 +7890,7 @@
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -7891,7 +7900,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -7901,7 +7910,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -7911,7 +7920,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -7921,7 +7930,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -7931,7 +7940,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -7941,7 +7950,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -7951,7 +7960,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -7961,7 +7970,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -7971,7 +7980,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -7981,7 +7990,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -7991,7 +8000,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -8001,7 +8010,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -8011,7 +8020,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -8021,7 +8030,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -8031,7 +8040,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -8041,7 +8050,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -8051,7 +8060,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -8061,7 +8070,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -8071,7 +8080,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -8081,7 +8090,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -8091,7 +8100,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -8101,7 +8110,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -8111,7 +8120,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -8121,7 +8130,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -8131,7 +8140,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -8141,7 +8150,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -8151,7 +8160,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -8161,7 +8170,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -8171,7 +8180,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -8181,7 +8190,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -8191,7 +8200,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -8201,7 +8210,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -8211,7 +8220,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -8221,7 +8230,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -8231,7 +8240,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -8241,7 +8250,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -8251,7 +8260,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -8271,25 +8280,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852DAA5D-83B9-46F4-A9F3-3ED634129B6A}">
   <dimension ref="A2:Q147"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O84" sqref="O84"/>
+    <sheetView tabSelected="1" topLeftCell="C75" zoomScale="228" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="16.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="10" width="9.1640625" style="1"/>
+    <col min="11" max="11" width="16.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -8318,36 +8327,36 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="28">
-        <v>1.0179743856435091</v>
+        <v>1.0166322027433863</v>
       </c>
       <c r="B3" s="28">
-        <v>0.13358980333145054</v>
+        <v>0.13062839434852161</v>
       </c>
       <c r="C3" s="28">
-        <v>0.1211391636948924</v>
+        <v>0.12314116523161912</v>
       </c>
       <c r="D3" s="28">
-        <v>0.12467063753267132</v>
+        <v>0.1257024536623596</v>
       </c>
       <c r="E3" s="28">
-        <v>0.13531832170333025</v>
+        <v>0.13547848295952164</v>
       </c>
       <c r="F3" s="28">
-        <v>0.12928234485283252</v>
+        <v>0.12944576597129506</v>
       </c>
       <c r="G3" s="28">
-        <v>0.11821491664108902</v>
+        <v>0.11813620537041646</v>
       </c>
       <c r="H3" s="28">
-        <v>0.11076458636061558</v>
+        <v>0.11151899774098474</v>
       </c>
       <c r="I3" s="28">
-        <v>0.12317923568362328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.12239821103452871</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -8358,7 +8367,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -8366,12 +8375,12 @@
       <c r="I5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -8417,7 +8426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>95</v>
       </c>
@@ -8455,23 +8464,23 @@
       </c>
       <c r="M10" s="23">
         <f t="shared" ref="M10:M41" si="0">$A$3*(A10^$B$3)*(B10^$C$3)*(C10^$D$3)*(D10^$E$3)*(E10^$F$3)*(F10^$G$3)*(G10^$H$3)*(H10^$I$3)</f>
-        <v>94.657084506396885</v>
+        <v>94.672199770616174</v>
       </c>
       <c r="N10" s="24"/>
       <c r="O10" s="25">
         <f>K10-M10</f>
-        <v>-3.2084506396884649E-2</v>
+        <v>-4.7199770616174419E-2</v>
       </c>
       <c r="P10" s="26">
         <f>ABS(O10)</f>
-        <v>3.2084506396884649E-2</v>
+        <v>4.7199770616174419E-2</v>
       </c>
       <c r="Q10" s="26">
         <f>O10^2</f>
-        <v>1.029415550731732E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.2278183462194822E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>95</v>
       </c>
@@ -8509,23 +8518,23 @@
       </c>
       <c r="M11" s="23">
         <f t="shared" si="0"/>
-        <v>98.031584581351538</v>
+        <v>98.037487322186152</v>
       </c>
       <c r="N11" s="24"/>
       <c r="O11" s="25">
         <f t="shared" ref="O11:O74" si="3">K11-M11</f>
-        <v>9.3415418648461923E-2</v>
+        <v>8.7512677813847972E-2</v>
       </c>
       <c r="P11" s="26">
         <f t="shared" ref="P11:P74" si="4">ABS(O11)</f>
-        <v>9.3415418648461923E-2</v>
+        <v>8.7512677813847972E-2</v>
       </c>
       <c r="Q11" s="26">
         <f t="shared" ref="Q11:Q74" si="5">O11^2</f>
-        <v>8.7264404412674083E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7.6584687781503591E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>100</v>
       </c>
@@ -8563,23 +8572,23 @@
       </c>
       <c r="M12" s="23">
         <f t="shared" si="0"/>
-        <v>99.87671088652813</v>
+        <v>99.878469250084947</v>
       </c>
       <c r="N12" s="24"/>
       <c r="O12" s="25">
         <f t="shared" si="3"/>
-        <v>-1.7108865281301178E-3</v>
+        <v>-3.4692500849473618E-3</v>
       </c>
       <c r="P12" s="26">
         <f t="shared" si="4"/>
-        <v>1.7108865281301178E-3</v>
+        <v>3.4692500849473618E-3</v>
       </c>
       <c r="Q12" s="26">
         <f t="shared" si="5"/>
-        <v>2.9271327121371283E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.2035696151907276E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>95</v>
       </c>
@@ -8617,23 +8626,23 @@
       </c>
       <c r="M13" s="23">
         <f t="shared" si="0"/>
-        <v>92.394381396839677</v>
+        <v>92.362196954992413</v>
       </c>
       <c r="N13" s="24"/>
       <c r="O13" s="25">
         <f t="shared" si="3"/>
-        <v>0.10561860316032323</v>
+        <v>0.13780304500758689</v>
       </c>
       <c r="P13" s="26">
         <f t="shared" si="4"/>
-        <v>0.10561860316032323</v>
+        <v>0.13780304500758689</v>
       </c>
       <c r="Q13" s="26">
         <f t="shared" si="5"/>
-        <v>1.115528933353784E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.8989679213363017E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>100</v>
       </c>
@@ -8671,23 +8680,23 @@
       </c>
       <c r="M14" s="23">
         <f t="shared" si="0"/>
-        <v>100.01263507915948</v>
+        <v>100.01455682645174</v>
       </c>
       <c r="N14" s="24"/>
       <c r="O14" s="25">
         <f t="shared" si="3"/>
-        <v>-1.2635079159480256E-2</v>
+        <v>-1.4556826451737948E-2</v>
       </c>
       <c r="P14" s="26">
         <f t="shared" si="4"/>
-        <v>1.2635079159480256E-2</v>
+        <v>1.4556826451737948E-2</v>
       </c>
       <c r="Q14" s="26">
         <f t="shared" si="5"/>
-        <v>1.5964522536633229E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.1190119634601761E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>100</v>
       </c>
@@ -8725,23 +8734,23 @@
       </c>
       <c r="M15" s="23">
         <f t="shared" si="0"/>
-        <v>100.01263507915948</v>
+        <v>100.01455682645174</v>
       </c>
       <c r="N15" s="24"/>
       <c r="O15" s="25">
         <f t="shared" si="3"/>
-        <v>-1.2635079159480256E-2</v>
+        <v>-1.4556826451737948E-2</v>
       </c>
       <c r="P15" s="26">
         <f t="shared" si="4"/>
-        <v>1.2635079159480256E-2</v>
+        <v>1.4556826451737948E-2</v>
       </c>
       <c r="Q15" s="26">
         <f t="shared" si="5"/>
-        <v>1.5964522536633229E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.1190119634601761E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>93</v>
       </c>
@@ -8779,23 +8788,23 @@
       </c>
       <c r="M16" s="23">
         <f t="shared" si="0"/>
-        <v>93.037680641523167</v>
+        <v>93.037505822939352</v>
       </c>
       <c r="N16" s="24"/>
       <c r="O16" s="25">
         <f t="shared" si="3"/>
-        <v>-3.7680641523166969E-2</v>
+        <v>-3.7505822939351674E-2</v>
       </c>
       <c r="P16" s="26">
         <f t="shared" si="4"/>
-        <v>3.7680641523166969E-2</v>
+        <v>3.7505822939351674E-2</v>
       </c>
       <c r="Q16" s="26">
         <f t="shared" si="5"/>
-        <v>1.4198307455974147E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.4066867543579983E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>100</v>
       </c>
@@ -8833,23 +8842,23 @@
       </c>
       <c r="M17" s="23">
         <f t="shared" si="0"/>
-        <v>100.01263507915948</v>
+        <v>100.01455682645174</v>
       </c>
       <c r="N17" s="24"/>
       <c r="O17" s="25">
         <f t="shared" si="3"/>
-        <v>-1.2635079159480256E-2</v>
+        <v>-1.4556826451737948E-2</v>
       </c>
       <c r="P17" s="26">
         <f t="shared" si="4"/>
-        <v>1.2635079159480256E-2</v>
+        <v>1.4556826451737948E-2</v>
       </c>
       <c r="Q17" s="26">
         <f t="shared" si="5"/>
-        <v>1.5964522536633229E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.1190119634601761E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>100</v>
       </c>
@@ -8887,23 +8896,23 @@
       </c>
       <c r="M18" s="23">
         <f t="shared" si="0"/>
-        <v>99.758117868872333</v>
+        <v>99.759953062102952</v>
       </c>
       <c r="N18" s="24"/>
       <c r="O18" s="25">
         <f t="shared" si="3"/>
-        <v>-8.1178688723326786E-3</v>
+        <v>-9.9530621029515487E-3</v>
       </c>
       <c r="P18" s="26">
         <f t="shared" si="4"/>
-        <v>8.1178688723326786E-3</v>
+        <v>9.9530621029515487E-3</v>
       </c>
       <c r="Q18" s="26">
         <f t="shared" si="5"/>
-        <v>6.5899795028387837E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9.9063445225210307E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>95</v>
       </c>
@@ -8941,23 +8950,23 @@
       </c>
       <c r="M19" s="23">
         <f t="shared" si="0"/>
-        <v>93.698313628078949</v>
+        <v>93.698843062687544</v>
       </c>
       <c r="N19" s="24"/>
       <c r="O19" s="25">
         <f t="shared" si="3"/>
-        <v>-7.3313628078949478E-2</v>
+        <v>-7.3843062687544148E-2</v>
       </c>
       <c r="P19" s="26">
         <f t="shared" si="4"/>
-        <v>7.3313628078949478E-2</v>
+        <v>7.3843062687544148E-2</v>
       </c>
       <c r="Q19" s="26">
         <f t="shared" si="5"/>
-        <v>5.374888062098529E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5.452797907076575E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>92</v>
       </c>
@@ -8995,23 +9004,23 @@
       </c>
       <c r="M20" s="23">
         <f t="shared" si="0"/>
-        <v>92.777649858941331</v>
+        <v>92.784922399176651</v>
       </c>
       <c r="N20" s="24"/>
       <c r="O20" s="25">
         <f t="shared" si="3"/>
-        <v>-2.7649858941330763E-2</v>
+        <v>-3.4922399176650742E-2</v>
       </c>
       <c r="P20" s="26">
         <f t="shared" si="4"/>
-        <v>2.7649858941330763E-2</v>
+        <v>3.4922399176650742E-2</v>
       </c>
       <c r="Q20" s="26">
         <f t="shared" si="5"/>
-        <v>7.645146994754887E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.2195739642533365E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>90</v>
       </c>
@@ -9049,23 +9058,23 @@
       </c>
       <c r="M21" s="23">
         <f t="shared" si="0"/>
-        <v>90.870834200616926</v>
+        <v>90.87405227726812</v>
       </c>
       <c r="N21" s="24"/>
       <c r="O21" s="25">
         <f t="shared" si="3"/>
-        <v>4.1657993830739315E-3</v>
+        <v>9.4772273187970768E-4</v>
       </c>
       <c r="P21" s="26">
         <f t="shared" si="4"/>
-        <v>4.1657993830739315E-3</v>
+        <v>9.4772273187970768E-4</v>
       </c>
       <c r="Q21" s="26">
         <f t="shared" si="5"/>
-        <v>1.7353884500019147E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>8.9817837652153634E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>95</v>
       </c>
@@ -9103,23 +9112,23 @@
       </c>
       <c r="M22" s="23">
         <f t="shared" si="0"/>
-        <v>95.030724153060561</v>
+        <v>95.031133319858625</v>
       </c>
       <c r="N22" s="24"/>
       <c r="O22" s="25">
         <f t="shared" si="3"/>
-        <v>-3.0724153060560866E-2</v>
+        <v>-3.1133319858625441E-2</v>
       </c>
       <c r="P22" s="26">
         <f t="shared" si="4"/>
-        <v>3.0724153060560866E-2</v>
+        <v>3.1133319858625441E-2</v>
       </c>
       <c r="Q22" s="26">
         <f t="shared" si="5"/>
-        <v>9.4397358128877164E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9.6928360541948129E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>90</v>
       </c>
@@ -9157,23 +9166,23 @@
       </c>
       <c r="M23" s="23">
         <f t="shared" si="0"/>
-        <v>90.670641873339832</v>
+        <v>90.666987647266353</v>
       </c>
       <c r="N23" s="24"/>
       <c r="O23" s="25">
         <f t="shared" si="3"/>
-        <v>-4.5641873339832273E-2</v>
+        <v>-4.1987647266353179E-2</v>
       </c>
       <c r="P23" s="26">
         <f t="shared" si="4"/>
-        <v>4.5641873339832273E-2</v>
+        <v>4.1987647266353179E-2</v>
       </c>
       <c r="Q23" s="26">
         <f t="shared" si="5"/>
-        <v>2.0831806019692921E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.7629625229636956E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>98</v>
       </c>
@@ -9211,23 +9220,23 @@
       </c>
       <c r="M24" s="23">
         <f t="shared" si="0"/>
-        <v>95.074674111203592</v>
+        <v>95.069148996146495</v>
       </c>
       <c r="N24" s="24"/>
       <c r="O24" s="25">
         <f t="shared" si="3"/>
-        <v>-7.467411120359202E-2</v>
+        <v>-6.9148996146495278E-2</v>
       </c>
       <c r="P24" s="26">
         <f t="shared" si="4"/>
-        <v>7.467411120359202E-2</v>
+        <v>6.9148996146495278E-2</v>
       </c>
       <c r="Q24" s="26">
         <f t="shared" si="5"/>
-        <v>5.5762228840464268E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4.7815836680680191E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>100</v>
       </c>
@@ -9265,23 +9274,23 @@
       </c>
       <c r="M25" s="23">
         <f t="shared" si="0"/>
-        <v>100.01263507915948</v>
+        <v>100.01455682645174</v>
       </c>
       <c r="N25" s="24"/>
       <c r="O25" s="25">
         <f t="shared" si="3"/>
-        <v>-1.2635079159480256E-2</v>
+        <v>-1.4556826451737948E-2</v>
       </c>
       <c r="P25" s="26">
         <f t="shared" si="4"/>
-        <v>1.2635079159480256E-2</v>
+        <v>1.4556826451737948E-2</v>
       </c>
       <c r="Q25" s="26">
         <f t="shared" si="5"/>
-        <v>1.5964522536633229E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.1190119634601761E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>89</v>
       </c>
@@ -9319,23 +9328,23 @@
       </c>
       <c r="M26" s="23">
         <f t="shared" si="0"/>
-        <v>93.425536574047513</v>
+        <v>93.441802476305156</v>
       </c>
       <c r="N26" s="24"/>
       <c r="O26" s="25">
         <f t="shared" si="3"/>
-        <v>-5.0536574047512772E-2</v>
+        <v>-6.6802476305156233E-2</v>
       </c>
       <c r="P26" s="26">
         <f t="shared" si="4"/>
-        <v>5.0536574047512772E-2</v>
+        <v>6.6802476305156233E-2</v>
       </c>
       <c r="Q26" s="26">
         <f t="shared" si="5"/>
-        <v>2.5539453164597414E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4.4625708405009604E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>99</v>
       </c>
@@ -9373,23 +9382,23 @@
       </c>
       <c r="M27" s="23">
         <f t="shared" si="0"/>
-        <v>96.444125009781303</v>
+        <v>96.434964196559932</v>
       </c>
       <c r="N27" s="24"/>
       <c r="O27" s="25">
         <f t="shared" si="3"/>
-        <v>-6.9125009781302538E-2</v>
+        <v>-5.9964196559931793E-2</v>
       </c>
       <c r="P27" s="26">
         <f t="shared" si="4"/>
-        <v>6.9125009781302538E-2</v>
+        <v>5.9964196559931793E-2</v>
       </c>
       <c r="Q27" s="26">
         <f t="shared" si="5"/>
-        <v>4.7782669772651713E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3.5957048690781358E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>100</v>
       </c>
@@ -9427,23 +9436,23 @@
       </c>
       <c r="M28" s="23">
         <f t="shared" si="0"/>
-        <v>100.01263507915948</v>
+        <v>100.01455682645174</v>
       </c>
       <c r="N28" s="24"/>
       <c r="O28" s="25">
         <f t="shared" si="3"/>
-        <v>-1.2635079159480256E-2</v>
+        <v>-1.4556826451737948E-2</v>
       </c>
       <c r="P28" s="26">
         <f t="shared" si="4"/>
-        <v>1.2635079159480256E-2</v>
+        <v>1.4556826451737948E-2</v>
       </c>
       <c r="Q28" s="26">
         <f t="shared" si="5"/>
-        <v>1.5964522536633229E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.1190119634601761E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>94</v>
       </c>
@@ -9481,23 +9490,23 @@
       </c>
       <c r="M29" s="23">
         <f t="shared" si="0"/>
-        <v>94.034222757412252</v>
+        <v>94.034338396283729</v>
       </c>
       <c r="N29" s="24"/>
       <c r="O29" s="25">
         <f t="shared" si="3"/>
-        <v>-3.4222757412251781E-2</v>
+        <v>-3.4338396283729367E-2</v>
       </c>
       <c r="P29" s="26">
         <f t="shared" si="4"/>
-        <v>3.4222757412251781E-2</v>
+        <v>3.4338396283729367E-2</v>
       </c>
       <c r="Q29" s="26">
         <f t="shared" si="5"/>
-        <v>1.1711971248978342E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.1791254593384389E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>85</v>
       </c>
@@ -9535,23 +9544,23 @@
       </c>
       <c r="M30" s="23">
         <f t="shared" si="0"/>
-        <v>84.447664349273154</v>
+        <v>84.445637216700973</v>
       </c>
       <c r="N30" s="24"/>
       <c r="O30" s="25">
         <f t="shared" si="3"/>
-        <v>-7.2664349273154016E-2</v>
+        <v>-7.0637216700973227E-2</v>
       </c>
       <c r="P30" s="26">
         <f t="shared" si="4"/>
-        <v>7.2664349273154016E-2</v>
+        <v>7.0637216700973227E-2</v>
       </c>
       <c r="Q30" s="26">
         <f t="shared" si="5"/>
-        <v>5.2801076552909188E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4.9896163832602513E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <v>99</v>
       </c>
@@ -9589,23 +9598,23 @@
       </c>
       <c r="M31" s="23">
         <f t="shared" si="0"/>
-        <v>97.162761554658857</v>
+        <v>97.162432735765861</v>
       </c>
       <c r="N31" s="24"/>
       <c r="O31" s="25">
         <f t="shared" si="3"/>
-        <v>8.7238445341142778E-2</v>
+        <v>8.756726423413852E-2</v>
       </c>
       <c r="P31" s="26">
         <f t="shared" si="4"/>
-        <v>8.7238445341142778E-2</v>
+        <v>8.756726423413852E-2</v>
       </c>
       <c r="Q31" s="26">
         <f t="shared" si="5"/>
-        <v>7.6105463455395563E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7.6680257654514351E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
         <v>100</v>
       </c>
@@ -9643,23 +9652,23 @@
       </c>
       <c r="M32" s="23">
         <f t="shared" si="0"/>
-        <v>100.01263507915948</v>
+        <v>100.01455682645174</v>
       </c>
       <c r="N32" s="24"/>
       <c r="O32" s="25">
         <f t="shared" si="3"/>
-        <v>-1.2635079159480256E-2</v>
+        <v>-1.4556826451737948E-2</v>
       </c>
       <c r="P32" s="26">
         <f t="shared" si="4"/>
-        <v>1.2635079159480256E-2</v>
+        <v>1.4556826451737948E-2</v>
       </c>
       <c r="Q32" s="26">
         <f t="shared" si="5"/>
-        <v>1.5964522536633229E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.1190119634601761E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
         <v>100</v>
       </c>
@@ -9697,23 +9706,23 @@
       </c>
       <c r="M33" s="23">
         <f t="shared" si="0"/>
-        <v>100.01263507915948</v>
+        <v>100.01455682645174</v>
       </c>
       <c r="N33" s="24"/>
       <c r="O33" s="25">
         <f t="shared" si="3"/>
-        <v>-1.2635079159480256E-2</v>
+        <v>-1.4556826451737948E-2</v>
       </c>
       <c r="P33" s="26">
         <f t="shared" si="4"/>
-        <v>1.2635079159480256E-2</v>
+        <v>1.4556826451737948E-2</v>
       </c>
       <c r="Q33" s="26">
         <f t="shared" si="5"/>
-        <v>1.5964522536633229E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.1190119634601761E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="21">
         <v>95</v>
       </c>
@@ -9751,23 +9760,23 @@
       </c>
       <c r="M34" s="23">
         <f t="shared" si="0"/>
-        <v>95.030724153060561</v>
+        <v>95.031133319858625</v>
       </c>
       <c r="N34" s="24"/>
       <c r="O34" s="25">
         <f t="shared" si="3"/>
-        <v>-3.0724153060560866E-2</v>
+        <v>-3.1133319858625441E-2</v>
       </c>
       <c r="P34" s="26">
         <f t="shared" si="4"/>
-        <v>3.0724153060560866E-2</v>
+        <v>3.1133319858625441E-2</v>
       </c>
       <c r="Q34" s="26">
         <f t="shared" si="5"/>
-        <v>9.4397358128877164E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9.6928360541948129E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="21">
         <v>90</v>
       </c>
@@ -9805,23 +9814,23 @@
       </c>
       <c r="M35" s="23">
         <f t="shared" si="0"/>
-        <v>90.047805528623272</v>
+        <v>90.046778096784067</v>
       </c>
       <c r="N35" s="24"/>
       <c r="O35" s="25">
         <f t="shared" si="3"/>
-        <v>-4.7805528623271698E-2</v>
+        <v>-4.6778096784066747E-2</v>
       </c>
       <c r="P35" s="26">
         <f t="shared" si="4"/>
-        <v>4.7805528623271698E-2</v>
+        <v>4.6778096784066747E-2</v>
       </c>
       <c r="Q35" s="26">
         <f t="shared" si="5"/>
-        <v>2.2853685669504496E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.1881903387395156E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="21">
         <v>100</v>
       </c>
@@ -9859,23 +9868,23 @@
       </c>
       <c r="M36" s="23">
         <f t="shared" si="0"/>
-        <v>100.01263507915948</v>
+        <v>100.01455682645174</v>
       </c>
       <c r="N36" s="24"/>
       <c r="O36" s="25">
         <f t="shared" si="3"/>
-        <v>-1.2635079159480256E-2</v>
+        <v>-1.4556826451737948E-2</v>
       </c>
       <c r="P36" s="26">
         <f t="shared" si="4"/>
-        <v>1.2635079159480256E-2</v>
+        <v>1.4556826451737948E-2</v>
       </c>
       <c r="Q36" s="26">
         <f t="shared" si="5"/>
-        <v>1.5964522536633229E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.1190119634601761E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="21">
         <v>100</v>
       </c>
@@ -9913,23 +9922,23 @@
       </c>
       <c r="M37" s="23">
         <f t="shared" si="0"/>
-        <v>100.01263507915948</v>
+        <v>100.01455682645174</v>
       </c>
       <c r="N37" s="24"/>
       <c r="O37" s="25">
         <f t="shared" si="3"/>
-        <v>-1.2635079159480256E-2</v>
+        <v>-1.4556826451737948E-2</v>
       </c>
       <c r="P37" s="26">
         <f t="shared" si="4"/>
-        <v>1.2635079159480256E-2</v>
+        <v>1.4556826451737948E-2</v>
       </c>
       <c r="Q37" s="26">
         <f t="shared" si="5"/>
-        <v>1.5964522536633229E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.1190119634601761E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="21">
         <v>90</v>
       </c>
@@ -9967,23 +9976,23 @@
       </c>
       <c r="M38" s="23">
         <f t="shared" si="0"/>
-        <v>88.750785368568273</v>
+        <v>88.757937331708007</v>
       </c>
       <c r="N38" s="24"/>
       <c r="O38" s="25">
         <f t="shared" si="3"/>
-        <v>-7.8536856827327028E-4</v>
+        <v>-7.9373317080069228E-3</v>
       </c>
       <c r="P38" s="26">
         <f t="shared" si="4"/>
-        <v>7.8536856827327028E-4</v>
+        <v>7.9373317080069228E-3</v>
       </c>
       <c r="Q38" s="26">
         <f t="shared" si="5"/>
-        <v>6.1680378803160645E-7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6.3001234642932094E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="21">
         <v>93</v>
       </c>
@@ -10021,23 +10030,23 @@
       </c>
       <c r="M39" s="23">
         <f t="shared" si="0"/>
-        <v>92.896825941426769</v>
+        <v>92.897443392224517</v>
       </c>
       <c r="N39" s="24"/>
       <c r="O39" s="25">
         <f t="shared" si="3"/>
-        <v>-2.1825941426769191E-2</v>
+        <v>-2.2443392224516856E-2</v>
       </c>
       <c r="P39" s="26">
         <f t="shared" si="4"/>
-        <v>2.1825941426769191E-2</v>
+        <v>2.2443392224516856E-2</v>
       </c>
       <c r="Q39" s="26">
         <f t="shared" si="5"/>
-        <v>4.7637171916475955E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5.0370585454350368E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="21">
         <v>93</v>
       </c>
@@ -10075,23 +10084,23 @@
       </c>
       <c r="M40" s="23">
         <f t="shared" si="0"/>
-        <v>93.037680641523167</v>
+        <v>93.037505822939352</v>
       </c>
       <c r="N40" s="24"/>
       <c r="O40" s="25">
         <f t="shared" si="3"/>
-        <v>-3.7680641523166969E-2</v>
+        <v>-3.7505822939351674E-2</v>
       </c>
       <c r="P40" s="26">
         <f t="shared" si="4"/>
-        <v>3.7680641523166969E-2</v>
+        <v>3.7505822939351674E-2</v>
       </c>
       <c r="Q40" s="26">
         <f t="shared" si="5"/>
-        <v>1.4198307455974147E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.4066867543579983E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="21">
         <v>80</v>
       </c>
@@ -10129,23 +10138,23 @@
       </c>
       <c r="M41" s="23">
         <f t="shared" si="0"/>
-        <v>80.07871349875569</v>
+        <v>80.075058349359153</v>
       </c>
       <c r="N41" s="24"/>
       <c r="O41" s="25">
         <f t="shared" si="3"/>
-        <v>-7.871349875568967E-2</v>
+        <v>-7.5058349359153453E-2</v>
       </c>
       <c r="P41" s="26">
         <f t="shared" si="4"/>
-        <v>7.871349875568967E-2</v>
+        <v>7.5058349359153453E-2</v>
       </c>
       <c r="Q41" s="26">
         <f t="shared" si="5"/>
-        <v>6.1958148863619595E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5.633755808520732E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="21">
         <v>100</v>
       </c>
@@ -10183,23 +10192,23 @@
       </c>
       <c r="M42" s="23">
         <f t="shared" ref="M42:M76" si="6">$A$3*(A42^$B$3)*(B42^$C$3)*(C42^$D$3)*(D42^$E$3)*(E42^$F$3)*(F42^$G$3)*(G42^$H$3)*(H42^$I$3)</f>
-        <v>100.01263507915948</v>
+        <v>100.01455682645174</v>
       </c>
       <c r="N42" s="24"/>
       <c r="O42" s="25">
         <f t="shared" si="3"/>
-        <v>-1.2635079159480256E-2</v>
+        <v>-1.4556826451737948E-2</v>
       </c>
       <c r="P42" s="26">
         <f t="shared" si="4"/>
-        <v>1.2635079159480256E-2</v>
+        <v>1.4556826451737948E-2</v>
       </c>
       <c r="Q42" s="26">
         <f t="shared" si="5"/>
-        <v>1.5964522536633229E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.1190119634601761E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="21">
         <v>95</v>
       </c>
@@ -10237,23 +10246,23 @@
       </c>
       <c r="M43" s="23">
         <f t="shared" si="6"/>
-        <v>96.658433213086994</v>
+        <v>96.657941367888739</v>
       </c>
       <c r="N43" s="24"/>
       <c r="O43" s="25">
         <f t="shared" si="3"/>
-        <v>-3.3433213086993874E-2</v>
+        <v>-3.2941367888739137E-2</v>
       </c>
       <c r="P43" s="26">
         <f t="shared" si="4"/>
-        <v>3.3433213086993874E-2</v>
+        <v>3.2941367888739137E-2</v>
       </c>
       <c r="Q43" s="26">
         <f t="shared" si="5"/>
-        <v>1.1177797373203384E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.0851337183812539E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="21">
         <v>100</v>
       </c>
@@ -10291,23 +10300,23 @@
       </c>
       <c r="M44" s="23">
         <f t="shared" si="6"/>
-        <v>100.01263507915948</v>
+        <v>100.01455682645174</v>
       </c>
       <c r="N44" s="24"/>
       <c r="O44" s="25">
         <f t="shared" si="3"/>
-        <v>-1.2635079159480256E-2</v>
+        <v>-1.4556826451737948E-2</v>
       </c>
       <c r="P44" s="26">
         <f t="shared" si="4"/>
-        <v>1.2635079159480256E-2</v>
+        <v>1.4556826451737948E-2</v>
       </c>
       <c r="Q44" s="26">
         <f t="shared" si="5"/>
-        <v>1.5964522536633229E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.1190119634601761E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
         <v>100</v>
       </c>
@@ -10345,23 +10354,23 @@
       </c>
       <c r="M45" s="23">
         <f t="shared" si="6"/>
-        <v>95.973405494811985</v>
+        <v>95.973679333036728</v>
       </c>
       <c r="N45" s="24"/>
       <c r="O45" s="25">
         <f t="shared" si="3"/>
-        <v>2.6594505188015205E-2</v>
+        <v>2.6320666963272288E-2</v>
       </c>
       <c r="P45" s="26">
         <f t="shared" si="4"/>
-        <v>2.6594505188015205E-2</v>
+        <v>2.6320666963272288E-2</v>
       </c>
       <c r="Q45" s="26">
         <f t="shared" si="5"/>
-        <v>7.0726770619536762E-4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6.9277750939149329E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="21">
         <v>89</v>
       </c>
@@ -10399,23 +10408,23 @@
       </c>
       <c r="M46" s="23">
         <f t="shared" si="6"/>
-        <v>88.428119025973984</v>
+        <v>88.422630176627436</v>
       </c>
       <c r="N46" s="24"/>
       <c r="O46" s="25">
         <f t="shared" si="3"/>
-        <v>-5.3119025973984435E-2</v>
+        <v>-4.7630176627436072E-2</v>
       </c>
       <c r="P46" s="26">
         <f t="shared" si="4"/>
-        <v>5.3119025973984435E-2</v>
+        <v>4.7630176627436072E-2</v>
       </c>
       <c r="Q46" s="26">
         <f t="shared" si="5"/>
-        <v>2.821630920424833E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.2686337255607572E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="21">
         <v>100</v>
       </c>
@@ -10453,23 +10462,23 @@
       </c>
       <c r="M47" s="23">
         <f t="shared" si="6"/>
-        <v>100.01263507915948</v>
+        <v>100.01455682645174</v>
       </c>
       <c r="N47" s="24"/>
       <c r="O47" s="25">
         <f t="shared" si="3"/>
-        <v>-1.2635079159480256E-2</v>
+        <v>-1.4556826451737948E-2</v>
       </c>
       <c r="P47" s="26">
         <f t="shared" si="4"/>
-        <v>1.2635079159480256E-2</v>
+        <v>1.4556826451737948E-2</v>
       </c>
       <c r="Q47" s="26">
         <f t="shared" si="5"/>
-        <v>1.5964522536633229E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.1190119634601761E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="21">
         <v>96</v>
       </c>
@@ -10507,23 +10516,23 @@
       </c>
       <c r="M48" s="23">
         <f t="shared" si="6"/>
-        <v>96.006225834270097</v>
+        <v>95.987255690567807</v>
       </c>
       <c r="N48" s="24"/>
       <c r="O48" s="25">
         <f t="shared" si="3"/>
-        <v>-6.2258342700971525E-3</v>
+        <v>1.274430943219329E-2</v>
       </c>
       <c r="P48" s="26">
         <f t="shared" si="4"/>
-        <v>6.2258342700971525E-3</v>
+        <v>1.274430943219329E-2</v>
       </c>
       <c r="Q48" s="26">
         <f t="shared" si="5"/>
-        <v>3.8761012358716146E-5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.6241742290349086E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
         <v>90</v>
       </c>
@@ -10561,23 +10570,23 @@
       </c>
       <c r="M49" s="23">
         <f t="shared" si="6"/>
-        <v>84.837961010285511</v>
+        <v>84.842350629621805</v>
       </c>
       <c r="N49" s="24"/>
       <c r="O49" s="25">
         <f t="shared" si="3"/>
-        <v>0.16203898971448893</v>
+        <v>0.15764937037819493</v>
       </c>
       <c r="P49" s="26">
         <f t="shared" si="4"/>
-        <v>0.16203898971448893</v>
+        <v>0.15764937037819493</v>
       </c>
       <c r="Q49" s="26">
         <f t="shared" si="5"/>
-        <v>2.6256634187692252E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.4853323980641284E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="21">
         <v>90</v>
       </c>
@@ -10615,23 +10624,23 @@
       </c>
       <c r="M50" s="23">
         <f t="shared" si="6"/>
-        <v>94.276027126168955</v>
+        <v>94.275473471233383</v>
       </c>
       <c r="N50" s="24"/>
       <c r="O50" s="25">
         <f t="shared" si="3"/>
-        <v>0.22397287383104469</v>
+        <v>0.22452652876661716</v>
       </c>
       <c r="P50" s="26">
         <f t="shared" si="4"/>
-        <v>0.22397287383104469</v>
+        <v>0.22452652876661716</v>
       </c>
       <c r="Q50" s="26">
         <f t="shared" si="5"/>
-        <v>5.0163848212137062E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5.0412162119986566E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="21">
         <v>85</v>
       </c>
@@ -10669,23 +10678,23 @@
       </c>
       <c r="M51" s="23">
         <f t="shared" si="6"/>
-        <v>90.817895517759482</v>
+        <v>90.836388753198591</v>
       </c>
       <c r="N51" s="24"/>
       <c r="O51" s="25">
         <f t="shared" si="3"/>
-        <v>5.710448224051845E-2</v>
+        <v>3.8611246801409038E-2</v>
       </c>
       <c r="P51" s="26">
         <f t="shared" si="4"/>
-        <v>5.710448224051845E-2</v>
+        <v>3.8611246801409038E-2</v>
       </c>
       <c r="Q51" s="26">
         <f t="shared" si="5"/>
-        <v>3.2609218919576869E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.4908283795593198E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="21">
         <v>85</v>
       </c>
@@ -10723,23 +10732,23 @@
       </c>
       <c r="M52" s="23">
         <f t="shared" si="6"/>
-        <v>86.242600019672352</v>
+        <v>86.230375036403217</v>
       </c>
       <c r="N52" s="24"/>
       <c r="O52" s="25">
         <f t="shared" si="3"/>
-        <v>7.3999803276478815E-3</v>
+        <v>1.9624963596783118E-2</v>
       </c>
       <c r="P52" s="26">
         <f t="shared" si="4"/>
-        <v>7.3999803276478815E-3</v>
+        <v>1.9624963596783118E-2</v>
       </c>
       <c r="Q52" s="26">
         <f t="shared" si="5"/>
-        <v>5.4759708849575651E-5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3.8513919617506258E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="21">
         <v>86</v>
       </c>
@@ -10777,23 +10786,23 @@
       </c>
       <c r="M53" s="23">
         <f t="shared" si="6"/>
-        <v>88.275069983670193</v>
+        <v>88.283005252089865</v>
       </c>
       <c r="N53" s="24"/>
       <c r="O53" s="25">
         <f t="shared" si="3"/>
-        <v>-2.5069983670192642E-2</v>
+        <v>-3.3005252089864712E-2</v>
       </c>
       <c r="P53" s="26">
         <f t="shared" si="4"/>
-        <v>2.5069983670192642E-2</v>
+        <v>3.3005252089864712E-2</v>
       </c>
       <c r="Q53" s="26">
         <f t="shared" si="5"/>
-        <v>6.2850408122372566E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.0893466655155189E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="21">
         <v>89</v>
       </c>
@@ -10831,23 +10840,23 @@
       </c>
       <c r="M54" s="23">
         <f t="shared" si="6"/>
-        <v>89.051096038831147</v>
+        <v>89.049790771430594</v>
       </c>
       <c r="N54" s="24"/>
       <c r="O54" s="25">
         <f t="shared" si="3"/>
-        <v>-5.1096038831147439E-2</v>
+        <v>-4.979077143059385E-2</v>
       </c>
       <c r="P54" s="26">
         <f t="shared" si="4"/>
-        <v>5.1096038831147439E-2</v>
+        <v>4.979077143059385E-2</v>
       </c>
       <c r="Q54" s="26">
         <f t="shared" si="5"/>
-        <v>2.610805184234127E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.4791209196536406E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="21">
         <v>100</v>
       </c>
@@ -10885,23 +10894,23 @@
       </c>
       <c r="M55" s="23">
         <f t="shared" si="6"/>
-        <v>100.01263507915948</v>
+        <v>100.01455682645174</v>
       </c>
       <c r="N55" s="24"/>
       <c r="O55" s="25">
         <f t="shared" si="3"/>
-        <v>-1.2635079159480256E-2</v>
+        <v>-1.4556826451737948E-2</v>
       </c>
       <c r="P55" s="26">
         <f t="shared" si="4"/>
-        <v>1.2635079159480256E-2</v>
+        <v>1.4556826451737948E-2</v>
       </c>
       <c r="Q55" s="26">
         <f t="shared" si="5"/>
-        <v>1.5964522536633229E-4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.1190119634601761E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="21">
         <v>100</v>
       </c>
@@ -10939,23 +10948,23 @@
       </c>
       <c r="M56" s="23">
         <f t="shared" si="6"/>
-        <v>100.01263507915948</v>
+        <v>100.01455682645174</v>
       </c>
       <c r="N56" s="24"/>
       <c r="O56" s="25">
         <f t="shared" si="3"/>
-        <v>-1.2635079159480256E-2</v>
+        <v>-1.4556826451737948E-2</v>
       </c>
       <c r="P56" s="26">
         <f t="shared" si="4"/>
-        <v>1.2635079159480256E-2</v>
+        <v>1.4556826451737948E-2</v>
       </c>
       <c r="Q56" s="26">
         <f t="shared" si="5"/>
-        <v>1.5964522536633229E-4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.1190119634601761E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="21">
         <v>99</v>
       </c>
@@ -10993,23 +11002,23 @@
       </c>
       <c r="M57" s="23">
         <f t="shared" si="6"/>
-        <v>99.016331005930937</v>
+        <v>99.017944348034931</v>
       </c>
       <c r="N57" s="24"/>
       <c r="O57" s="25">
         <f t="shared" si="3"/>
-        <v>-1.6331005930936726E-2</v>
+        <v>-1.7944348034930613E-2</v>
       </c>
       <c r="P57" s="26">
         <f t="shared" si="4"/>
-        <v>1.6331005930936726E-2</v>
+        <v>1.7944348034930613E-2</v>
       </c>
       <c r="Q57" s="26">
         <f t="shared" si="5"/>
-        <v>2.6670175471629054E-4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3.2199962639871816E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="21">
         <v>70</v>
       </c>
@@ -11047,23 +11056,23 @@
       </c>
       <c r="M58" s="23">
         <f t="shared" si="6"/>
-        <v>75.108795198357129</v>
+        <v>75.116963419306188</v>
       </c>
       <c r="N58" s="24"/>
       <c r="O58" s="25">
         <f t="shared" si="3"/>
-        <v>-0.1087951983571287</v>
+        <v>-0.11696341930618814</v>
       </c>
       <c r="P58" s="26">
         <f t="shared" si="4"/>
-        <v>0.1087951983571287</v>
+        <v>0.11696341930618814</v>
       </c>
       <c r="Q58" s="26">
         <f t="shared" si="5"/>
-        <v>1.1836395185566978E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.3680441455795186E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="21">
         <v>90</v>
       </c>
@@ -11101,23 +11110,23 @@
       </c>
       <c r="M59" s="23">
         <f t="shared" si="6"/>
-        <v>88.754690532302021</v>
+        <v>88.751024574474243</v>
       </c>
       <c r="N59" s="24"/>
       <c r="O59" s="25">
         <f t="shared" si="3"/>
-        <v>-0.12969053230202121</v>
+        <v>-0.12602457447424342</v>
       </c>
       <c r="P59" s="26">
         <f t="shared" si="4"/>
-        <v>0.12969053230202121</v>
+        <v>0.12602457447424342</v>
       </c>
       <c r="Q59" s="26">
         <f t="shared" si="5"/>
-        <v>1.6819634168781607E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.5882193371414128E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="21">
         <v>90</v>
       </c>
@@ -11155,23 +11164,23 @@
       </c>
       <c r="M60" s="23">
         <f t="shared" si="6"/>
-        <v>90.047805528623272</v>
+        <v>90.046778096784067</v>
       </c>
       <c r="N60" s="24"/>
       <c r="O60" s="25">
         <f t="shared" si="3"/>
-        <v>-4.7805528623271698E-2</v>
+        <v>-4.6778096784066747E-2</v>
       </c>
       <c r="P60" s="26">
         <f t="shared" si="4"/>
-        <v>4.7805528623271698E-2</v>
+        <v>4.6778096784066747E-2</v>
       </c>
       <c r="Q60" s="26">
         <f t="shared" si="5"/>
-        <v>2.2853685669504496E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.1881903387395156E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="21">
         <v>100</v>
       </c>
@@ -11209,23 +11218,23 @@
       </c>
       <c r="M61" s="23">
         <f t="shared" si="6"/>
-        <v>91.107577949463419</v>
+        <v>91.097384857647413</v>
       </c>
       <c r="N61" s="24"/>
       <c r="O61" s="25">
         <f t="shared" si="3"/>
-        <v>0.14242205053658097</v>
+        <v>0.15261514235258744</v>
       </c>
       <c r="P61" s="26">
         <f t="shared" si="4"/>
-        <v>0.14242205053658097</v>
+        <v>0.15261514235258744</v>
       </c>
       <c r="Q61" s="26">
         <f t="shared" si="5"/>
-        <v>2.0284040479044422E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.3291381675300527E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="21">
         <v>80</v>
       </c>
@@ -11263,23 +11272,23 @@
       </c>
       <c r="M62" s="23">
         <f t="shared" si="6"/>
-        <v>80.07871349875569</v>
+        <v>80.075058349359153</v>
       </c>
       <c r="N62" s="24"/>
       <c r="O62" s="25">
         <f t="shared" si="3"/>
-        <v>-7.871349875568967E-2</v>
+        <v>-7.5058349359153453E-2</v>
       </c>
       <c r="P62" s="26">
         <f t="shared" si="4"/>
-        <v>7.871349875568967E-2</v>
+        <v>7.5058349359153453E-2</v>
       </c>
       <c r="Q62" s="26">
         <f t="shared" si="5"/>
-        <v>6.1958148863619595E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5.633755808520732E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="21">
         <v>95</v>
       </c>
@@ -11317,23 +11326,23 @@
       </c>
       <c r="M63" s="23">
         <f t="shared" si="6"/>
-        <v>96.769385352587449</v>
+        <v>96.78338809862602</v>
       </c>
       <c r="N63" s="24"/>
       <c r="O63" s="25">
         <f t="shared" si="3"/>
-        <v>0.10561464741255122</v>
+        <v>9.1611901373980231E-2</v>
       </c>
       <c r="P63" s="26">
         <f t="shared" si="4"/>
-        <v>0.10561464741255122</v>
+        <v>9.1611901373980231E-2</v>
       </c>
       <c r="Q63" s="26">
         <f t="shared" si="5"/>
-        <v>1.1154453748077513E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+        <v>8.3927404733558815E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="21">
         <v>80</v>
       </c>
@@ -11371,23 +11380,23 @@
       </c>
       <c r="M64" s="23">
         <f t="shared" si="6"/>
-        <v>81.875729932598148</v>
+        <v>81.872846876815004</v>
       </c>
       <c r="N64" s="24"/>
       <c r="O64" s="25">
         <f t="shared" si="3"/>
-        <v>-7.2993259814779776E-4</v>
+        <v>2.1531231849962751E-3</v>
       </c>
       <c r="P64" s="26">
         <f t="shared" si="4"/>
-        <v>7.2993259814779776E-4</v>
+        <v>2.1531231849962751E-3</v>
       </c>
       <c r="Q64" s="26">
         <f t="shared" si="5"/>
-        <v>5.3280159783879436E-7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4.6359394497685039E-6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="21">
         <v>69</v>
       </c>
@@ -11425,23 +11434,23 @@
       </c>
       <c r="M65" s="23">
         <f t="shared" si="6"/>
-        <v>72.665724902651476</v>
+        <v>72.663602302234693</v>
       </c>
       <c r="N65" s="24"/>
       <c r="O65" s="25">
         <f t="shared" si="3"/>
-        <v>0.20927509734852379</v>
+        <v>0.2113976977653067</v>
       </c>
       <c r="P65" s="26">
         <f t="shared" si="4"/>
-        <v>0.20927509734852379</v>
+        <v>0.2113976977653067</v>
       </c>
       <c r="Q65" s="26">
         <f t="shared" si="5"/>
-        <v>4.3796066370234109E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4.4688986620471959E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="21">
         <v>99</v>
       </c>
@@ -11479,23 +11488,23 @@
       </c>
       <c r="M66" s="23">
         <f t="shared" si="6"/>
-        <v>87.273060504561371</v>
+        <v>87.256407572168001</v>
       </c>
       <c r="N66" s="24"/>
       <c r="O66" s="25">
         <f t="shared" si="3"/>
-        <v>0.22693949543862857</v>
+        <v>0.24359242783199875</v>
       </c>
       <c r="P66" s="26">
         <f t="shared" si="4"/>
-        <v>0.22693949543862857</v>
+        <v>0.24359242783199875</v>
       </c>
       <c r="Q66" s="26">
         <f t="shared" si="5"/>
-        <v>5.1501534589939314E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5.933727089708752E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="21">
         <v>80</v>
       </c>
@@ -11533,23 +11542,23 @@
       </c>
       <c r="M67" s="23">
         <f t="shared" si="6"/>
-        <v>80.07871349875569</v>
+        <v>80.075058349359153</v>
       </c>
       <c r="N67" s="24"/>
       <c r="O67" s="25">
         <f t="shared" si="3"/>
-        <v>-7.871349875568967E-2</v>
+        <v>-7.5058349359153453E-2</v>
       </c>
       <c r="P67" s="26">
         <f t="shared" si="4"/>
-        <v>7.871349875568967E-2</v>
+        <v>7.5058349359153453E-2</v>
       </c>
       <c r="Q67" s="26">
         <f t="shared" si="5"/>
-        <v>6.1958148863619595E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5.633755808520732E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="21">
         <v>80</v>
       </c>
@@ -11587,23 +11596,23 @@
       </c>
       <c r="M68" s="23">
         <f t="shared" si="6"/>
-        <v>81.342297622856691</v>
+        <v>81.324444112230125</v>
       </c>
       <c r="N68" s="24"/>
       <c r="O68" s="25">
         <f t="shared" si="3"/>
-        <v>-9.2297622856690964E-2</v>
+        <v>-7.444411223012537E-2</v>
       </c>
       <c r="P68" s="26">
         <f t="shared" si="4"/>
-        <v>9.2297622856690964E-2</v>
+        <v>7.444411223012537E-2</v>
       </c>
       <c r="Q68" s="26">
         <f t="shared" si="5"/>
-        <v>8.5188511849959622E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5.5419258457315018E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="21">
         <v>90</v>
       </c>
@@ -11641,23 +11650,23 @@
       </c>
       <c r="M69" s="23">
         <f t="shared" si="6"/>
-        <v>92.518733242688469</v>
+        <v>92.512141055580244</v>
       </c>
       <c r="N69" s="24"/>
       <c r="O69" s="25">
         <f t="shared" si="3"/>
-        <v>0.23126675731153057</v>
+        <v>0.23785894441975586</v>
       </c>
       <c r="P69" s="26">
         <f t="shared" si="4"/>
-        <v>0.23126675731153057</v>
+        <v>0.23785894441975586</v>
       </c>
       <c r="Q69" s="26">
         <f t="shared" si="5"/>
-        <v>5.3484313037390381E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5.6576877440480504E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="21">
         <v>95</v>
       </c>
@@ -11695,23 +11704,23 @@
       </c>
       <c r="M70" s="23">
         <f t="shared" si="6"/>
-        <v>95.030724153060561</v>
+        <v>95.031133319858625</v>
       </c>
       <c r="N70" s="24"/>
       <c r="O70" s="25">
         <f t="shared" si="3"/>
-        <v>-3.0724153060560866E-2</v>
+        <v>-3.1133319858625441E-2</v>
       </c>
       <c r="P70" s="26">
         <f t="shared" si="4"/>
-        <v>3.0724153060560866E-2</v>
+        <v>3.1133319858625441E-2</v>
       </c>
       <c r="Q70" s="26">
         <f t="shared" si="5"/>
-        <v>9.4397358128877164E-4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9.6928360541948129E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="21">
         <v>94</v>
       </c>
@@ -11749,23 +11758,23 @@
       </c>
       <c r="M71" s="23">
         <f t="shared" si="6"/>
-        <v>92.71182013065328</v>
+        <v>92.713110476843468</v>
       </c>
       <c r="N71" s="24"/>
       <c r="O71" s="25">
         <f t="shared" si="3"/>
-        <v>-8.6820130653279648E-2</v>
+        <v>-8.8110476843468177E-2</v>
       </c>
       <c r="P71" s="26">
         <f t="shared" si="4"/>
-        <v>8.6820130653279648E-2</v>
+        <v>8.8110476843468177E-2</v>
       </c>
       <c r="Q71" s="26">
         <f t="shared" si="5"/>
-        <v>7.5377350866525483E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7.7634561295833416E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="21">
         <v>80</v>
       </c>
@@ -11803,23 +11812,23 @@
       </c>
       <c r="M72" s="23">
         <f t="shared" si="6"/>
-        <v>90.826213392195868</v>
+        <v>90.850528107324109</v>
       </c>
       <c r="N72" s="24"/>
       <c r="O72" s="25">
         <f t="shared" si="3"/>
-        <v>0.17378660780413213</v>
+        <v>0.14947189267589067</v>
       </c>
       <c r="P72" s="26">
         <f t="shared" si="4"/>
-        <v>0.17378660780413213</v>
+        <v>0.14947189267589067</v>
       </c>
       <c r="Q72" s="26">
         <f t="shared" si="5"/>
-        <v>3.0201785052067238E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.234184670011298E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="21">
         <v>99</v>
       </c>
@@ -11857,23 +11866,23 @@
       </c>
       <c r="M73" s="23">
         <f t="shared" si="6"/>
-        <v>99.016331005930937</v>
+        <v>99.017944348034931</v>
       </c>
       <c r="N73" s="24"/>
       <c r="O73" s="25">
         <f t="shared" si="3"/>
-        <v>-1.6331005930936726E-2</v>
+        <v>-1.7944348034930613E-2</v>
       </c>
       <c r="P73" s="26">
         <f t="shared" si="4"/>
-        <v>1.6331005930936726E-2</v>
+        <v>1.7944348034930613E-2</v>
       </c>
       <c r="Q73" s="26">
         <f t="shared" si="5"/>
-        <v>2.6670175471629054E-4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3.2199962639871816E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="21">
         <v>100</v>
       </c>
@@ -11911,23 +11920,23 @@
       </c>
       <c r="M74" s="23">
         <f t="shared" si="6"/>
-        <v>99.393120600090356</v>
+        <v>99.384824165884297</v>
       </c>
       <c r="N74" s="24"/>
       <c r="O74" s="25">
         <f t="shared" si="3"/>
-        <v>-1.8120600090355765E-2</v>
+        <v>-9.8241658842965762E-3</v>
       </c>
       <c r="P74" s="26">
         <f t="shared" si="4"/>
-        <v>1.8120600090355765E-2</v>
+        <v>9.8241658842965762E-3</v>
       </c>
       <c r="Q74" s="26">
         <f t="shared" si="5"/>
-        <v>3.2835614763460135E-4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9.6514235322176734E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="21">
         <v>99</v>
       </c>
@@ -11965,23 +11974,23 @@
       </c>
       <c r="M75" s="23">
         <f t="shared" si="6"/>
-        <v>98.630545225664719</v>
+        <v>98.627180882163032</v>
       </c>
       <c r="N75" s="24"/>
       <c r="O75" s="25">
         <f t="shared" ref="O75:O76" si="9">K75-M75</f>
-        <v>-5.5452256647186005E-3</v>
+        <v>-2.1808821630315833E-3</v>
       </c>
       <c r="P75" s="26">
         <f t="shared" ref="P75:P76" si="10">ABS(O75)</f>
-        <v>5.5452256647186005E-3</v>
+        <v>2.1808821630315833E-3</v>
       </c>
       <c r="Q75" s="26">
         <f t="shared" ref="Q75:Q76" si="11">O75^2</f>
-        <v>3.0749527672653842E-5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4.7562470090293175E-6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="21">
         <v>99</v>
       </c>
@@ -12019,23 +12028,23 @@
       </c>
       <c r="M76" s="23">
         <f t="shared" si="6"/>
-        <v>99.016331005930937</v>
+        <v>99.017944348034931</v>
       </c>
       <c r="N76" s="24"/>
       <c r="O76" s="25">
         <f t="shared" si="9"/>
-        <v>-1.6331005930936726E-2</v>
+        <v>-1.7944348034930613E-2</v>
       </c>
       <c r="P76" s="26">
         <f t="shared" si="10"/>
-        <v>1.6331005930936726E-2</v>
+        <v>1.7944348034930613E-2</v>
       </c>
       <c r="Q76" s="26">
         <f t="shared" si="11"/>
-        <v>2.6670175471629054E-4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3.2199962639871816E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>31</v>
       </c>
@@ -12056,22 +12065,22 @@
       </c>
       <c r="M78" s="1">
         <f>SUM(M10:M76)</f>
-        <v>6243.2416117403054</v>
+        <v>6243.2363249329983</v>
       </c>
       <c r="O78" s="1">
         <f t="shared" ref="O78:Q78" si="12">SUM(O10:O76)</f>
-        <v>8.3882596944278021E-3</v>
+        <v>1.3675066999724095E-2</v>
       </c>
       <c r="P78" s="1">
         <f t="shared" si="12"/>
-        <v>3.7053192476789008</v>
+        <v>3.7503427836611536</v>
       </c>
       <c r="Q78" s="1">
         <f t="shared" si="12"/>
-        <v>0.43168744679714754</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43812003085160278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -12081,7 +12090,7 @@
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>33</v>
       </c>
@@ -12096,7 +12105,7 @@
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -12110,10 +12119,10 @@
       </c>
       <c r="K81" s="1">
         <f>Q78/B78</f>
-        <v>6.4430962208529485E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6.5391049380836234E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>37</v>
       </c>
@@ -12132,10 +12141,10 @@
       </c>
       <c r="K82" s="1">
         <f>SQRT(K81)</f>
-        <v>8.0268899462076521E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8.0864732350287433E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>35</v>
       </c>
@@ -12154,10 +12163,10 @@
       </c>
       <c r="K83" s="1">
         <f>P78/B78</f>
-        <v>5.5303272353416429E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5.5975265427778413E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -12170,11 +12179,11 @@
         <v>26</v>
       </c>
       <c r="K84" s="1">
-        <f>B83/SQRT(B78)</f>
-        <v>0.81408830577841029</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <f>Q78</f>
+        <v>0.43812003085160278</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -12188,10 +12197,10 @@
       </c>
       <c r="K85" s="1">
         <f>1-(Q78/L78)</f>
-        <v>0.99985269833728085</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.99985050339199388</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -12201,7 +12210,7 @@
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -12211,7 +12220,7 @@
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -12221,7 +12230,7 @@
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -12231,7 +12240,7 @@
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -12241,7 +12250,7 @@
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -12251,7 +12260,7 @@
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -12261,7 +12270,7 @@
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -12271,7 +12280,7 @@
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -12281,7 +12290,7 @@
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -12291,7 +12300,7 @@
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -12301,7 +12310,7 @@
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -12311,7 +12320,7 @@
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -12321,7 +12330,7 @@
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -12331,7 +12340,7 @@
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -12341,7 +12350,7 @@
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -12351,7 +12360,7 @@
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -12361,7 +12370,7 @@
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -12371,7 +12380,7 @@
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -12381,7 +12390,7 @@
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -12391,7 +12400,7 @@
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -12401,7 +12410,7 @@
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -12411,7 +12420,7 @@
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -12421,7 +12430,7 @@
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -12431,7 +12440,7 @@
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -12441,7 +12450,7 @@
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -12451,7 +12460,7 @@
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -12461,7 +12470,7 @@
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -12471,7 +12480,7 @@
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -12481,7 +12490,7 @@
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -12491,7 +12500,7 @@
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -12501,7 +12510,7 @@
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -12511,7 +12520,7 @@
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -12521,7 +12530,7 @@
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -12531,7 +12540,7 @@
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -12541,7 +12550,7 @@
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -12551,7 +12560,7 @@
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -12561,7 +12570,7 @@
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -12571,7 +12580,7 @@
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -12581,7 +12590,7 @@
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -12591,7 +12600,7 @@
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -12601,7 +12610,7 @@
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -12611,7 +12620,7 @@
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -12621,7 +12630,7 @@
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -12631,7 +12640,7 @@
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -12641,7 +12650,7 @@
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -12651,7 +12660,7 @@
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -12661,7 +12670,7 @@
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -12671,7 +12680,7 @@
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -12681,7 +12690,7 @@
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -12691,7 +12700,7 @@
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -12701,7 +12710,7 @@
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -12711,7 +12720,7 @@
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -12721,7 +12730,7 @@
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -12731,7 +12740,7 @@
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -12741,7 +12750,7 @@
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -12751,7 +12760,7 @@
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -12761,7 +12770,7 @@
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -12771,7 +12780,7 @@
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -12781,7 +12790,7 @@
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
